--- a/output/inference_results/test_sheets/batch_005/test_sheet (51).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (51).xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>白细胞计数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,14 +451,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4~10×109/L</t>
+          <t>4-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>红细胞计数</t>
+          <t>中性细胞数</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.5~5×1012/L</t>
+          <t>3.5-5</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110~150g/L</t>
+          <t>110-150</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.37~0.47</t>
+          <t>0.37-0.47</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>90.3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80~100f</t>
+          <t>80-100</t>
         </is>
       </c>
     </row>
@@ -531,19 +531,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29.90</t>
+          <t>29.9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27~34pg</t>
+          <t>27-34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MCHC</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -553,14 +553,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>320~360g/L</t>
+          <t>320-360</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RDW-SD</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11.6~14.6%</t>
+          <t>11.6-14.6</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100~300×109/1</t>
+          <t>100-300</t>
         </is>
       </c>
     </row>
@@ -621,48 +621,48 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.11~0.28</t>
+          <t>0.11-0.28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>血小板分布宽度%</t>
+          <t>血小板分布宽度</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9~17%</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>血小板平均体积</t>
+          <t>平均血小板体积</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.5~11f</t>
+          <t>6.5-11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>中性粒细胞计数</t>
+          <t>中性粒细胞数</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>×109/L</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>淋巴细胞计数</t>
+          <t>淋巴细胞数</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>X109/L</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>单核细胞计数</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -706,51 +706,51 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>X10 9/L</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>嗜酸粒细胞计数</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>×10^9/L</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>送检2013-03-30</t>
+          <t>RDW-CV</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>日期10:39:36</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2013-03-30</t>
+          <t>2013-03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>碱粒细胞计数</t>
+          <t>中性粒细胞数</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -760,14 +760,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>×109/L</t>
+          <t>×</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>未成熟粒细胞绝对值</t>
+          <t>中性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -777,14 +777,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>X1091</t>
+          <t>×10^91</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>中性粒细胞相对值</t>
+          <t>中性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>淋巴细胞相对值</t>
+          <t>淋巴细胞绝对值</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>单核细胞相对值</t>
+          <t>单核细胞绝对值</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>嗜酸粒细胞相对值</t>
+          <t>嗜酸性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>碱性粒细胞相对值</t>
+          <t>嗜碱性粒细胞绝对值</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1003Bl</t>
+          <t>1003</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>日期2013033011:07:55检验师</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
